--- a/CA_data/LC/ELAS/2021-22/16+KINGS_char.xlsx
+++ b/CA_data/LC/ELAS/2021-22/16+KINGS_char.xlsx
@@ -7,9 +7,9 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="-2021-22EnrollmentbyEnglishLang" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Kings County Report" sheetId="3" r:id="rId3"/>
+    <sheet name="sheet3" sheetId="1" r:id="rId1"/>
+    <sheet name="2021-22EnrollmentbyEnglishLangu" sheetId="2" r:id="rId2"/>
+    <sheet name="Report Totals" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
